--- a/public/files/sample_file.xlsx
+++ b/public/files/sample_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ashraf_new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7468984E-6E37-4BD5-AAF2-A3C01769000B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CE3F4E-F66A-4E37-89C0-A464E0B8D5DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E87D5242-C6AD-4321-85C0-616D6135E536}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>در صورت وجود</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>نسبت</t>
+  </si>
+  <si>
+    <t>شماره تلفن</t>
+  </si>
+  <si>
+    <t>مربی/سرپرست/فرزند/نوه/همسر</t>
+  </si>
+  <si>
+    <t>برای مربی و سرپرست الزامی است</t>
   </si>
 </sst>
 </file>
@@ -204,26 +222,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -232,6 +235,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,309 +571,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A55BAA-5535-42F9-ADC7-0A2C032F4450}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" customWidth="1"/>
-    <col min="15" max="15" width="2.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" customWidth="1"/>
+    <col min="5" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="5.21875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" ht="29.4" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="29.4" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="L3" s="1" t="s">
+    <row r="3" spans="1:19">
+      <c r="N3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="L5" s="4" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="N5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="L7" s="4" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="L9" s="4" t="s">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="N9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="L11" s="4" t="s">
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="N11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="L13" s="5" t="s">
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="N13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="13"/>
+      <c r="P13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="L14" s="5" t="s">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="N14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="13"/>
+      <c r="P14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="L15" s="5" t="s">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="N15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="13"/>
+      <c r="P15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6" t="s">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="L16" s="8" t="s">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="N16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="12:17">
-      <c r="L17" s="8" t="s">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="14:19">
+      <c r="N17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="14:19">
+      <c r="N18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="9"/>
+      <c r="P18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="14:19">
+      <c r="N19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7" t="s">
+      <c r="O19" s="9"/>
+      <c r="P19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="6" t="s">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="12:17">
-      <c r="L18" s="8" t="s">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="14:19">
+      <c r="N20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="6" t="s">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="12:17">
-      <c r="L19" s="8" t="s">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="14:19">
+      <c r="N21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7" t="s">
+      <c r="O21" s="9"/>
+      <c r="P21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="6" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="12:17">
-      <c r="L20" s="8" t="s">
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="14:19">
+      <c r="N22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7" t="s">
+      <c r="O22" s="9"/>
+      <c r="P22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="6" t="s">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="12:17">
-      <c r="L21" s="8" t="s">
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="14:19">
+      <c r="N23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7" t="s">
+      <c r="O23" s="9"/>
+      <c r="P23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="6" t="s">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="12:17">
-      <c r="L22" s="8" t="s">
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="14:19">
+      <c r="N24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7" t="s">
+      <c r="O24" s="9"/>
+      <c r="P24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="6" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="S24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L3:Q4"/>
-    <mergeCell ref="L5:Q6"/>
-    <mergeCell ref="L7:Q8"/>
-    <mergeCell ref="L9:Q10"/>
-    <mergeCell ref="L11:Q12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
+  <mergeCells count="19">
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="N5:S6"/>
+    <mergeCell ref="N7:S8"/>
+    <mergeCell ref="N9:S10"/>
+    <mergeCell ref="N11:S12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
